--- a/docs/resources/Dictionary_testCohort.xlsx
+++ b/docs/resources/Dictionary_testCohort.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\Molgenis\repos\molgenis-emx2\docs\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF05B8C-60FB-44D9-87A3-3F5BF98EC4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68382FD5-1C08-4890-A470-4DF7709A8429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="19185" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasets" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="133">
   <si>
     <t>label</t>
   </si>
@@ -219,9 +219,6 @@
     <t>data collected from mother</t>
   </si>
   <si>
-    <t>testDataset</t>
-  </si>
-  <si>
     <t>useExternalDefinition.resource</t>
   </si>
   <si>
@@ -390,9 +387,6 @@
     <t>ICD10</t>
   </si>
   <si>
-    <t>var1</t>
-  </si>
-  <si>
     <t>bm_1</t>
   </si>
   <si>
@@ -424,6 +418,9 @@
   </si>
   <si>
     <t>1 months,2 months,3 months,4 months,5 months</t>
+  </si>
+  <si>
+    <t>variable</t>
   </si>
 </sst>
 </file>
@@ -856,7 +853,7 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
@@ -882,7 +879,7 @@
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
         <v>42</v>
@@ -908,7 +905,7 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
         <v>42</v>
@@ -934,7 +931,7 @@
         <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E5" t="s">
         <v>42</v>
@@ -960,7 +957,7 @@
         <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
         <v>42</v>
@@ -986,7 +983,7 @@
         <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E7" t="s">
         <v>42</v>
@@ -1008,11 +1005,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1090,13 +1085,13 @@
         <v>28</v>
       </c>
       <c r="R1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" t="s">
         <v>66</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>67</v>
-      </c>
-      <c r="T1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
@@ -1107,22 +1102,22 @@
         <v>41</v>
       </c>
       <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
         <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
         <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
@@ -1133,22 +1128,22 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
         <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
       </c>
       <c r="O3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
@@ -1159,16 +1154,16 @@
         <v>41</v>
       </c>
       <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
         <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>77</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
@@ -1182,25 +1177,25 @@
         <v>58</v>
       </c>
       <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
         <v>78</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>79</v>
-      </c>
-      <c r="E5" t="s">
-        <v>80</v>
       </c>
       <c r="F5" t="s">
         <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s">
         <v>49</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
@@ -1211,22 +1206,22 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
         <v>83</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>84</v>
-      </c>
-      <c r="E6" t="s">
-        <v>85</v>
       </c>
       <c r="F6" t="s">
         <v>31</v>
       </c>
       <c r="G6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" t="s">
         <v>86</v>
-      </c>
-      <c r="N6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
@@ -1237,28 +1232,28 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
         <v>88</v>
       </c>
-      <c r="D7" t="s">
-        <v>89</v>
-      </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
         <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" t="s">
         <v>90</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>91</v>
-      </c>
-      <c r="O7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
@@ -1269,28 +1264,28 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" t="s">
         <v>93</v>
       </c>
-      <c r="D8" t="s">
-        <v>94</v>
-      </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
         <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" t="s">
         <v>95</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>96</v>
-      </c>
-      <c r="O8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
@@ -1301,28 +1296,28 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
         <v>98</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>99</v>
-      </c>
-      <c r="E9" t="s">
-        <v>100</v>
       </c>
       <c r="F9" t="s">
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" t="s">
         <v>90</v>
       </c>
-      <c r="N9" t="s">
-        <v>91</v>
-      </c>
       <c r="O9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
@@ -1333,28 +1328,28 @@
         <v>50</v>
       </c>
       <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" t="s">
         <v>102</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>103</v>
-      </c>
-      <c r="E10" t="s">
-        <v>104</v>
       </c>
       <c r="F10" t="s">
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" t="s">
         <v>95</v>
       </c>
-      <c r="N10" t="s">
-        <v>96</v>
-      </c>
       <c r="O10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
@@ -1365,25 +1360,25 @@
         <v>62</v>
       </c>
       <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s">
         <v>106</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>107</v>
-      </c>
-      <c r="E11" t="s">
-        <v>108</v>
       </c>
       <c r="F11" t="s">
         <v>35</v>
       </c>
       <c r="G11" t="s">
+        <v>108</v>
+      </c>
+      <c r="N11" t="s">
         <v>109</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>110</v>
-      </c>
-      <c r="O11" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.45">
@@ -1394,28 +1389,28 @@
         <v>62</v>
       </c>
       <c r="C12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" t="s">
         <v>112</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>113</v>
-      </c>
-      <c r="E12" t="s">
-        <v>114</v>
       </c>
       <c r="F12" t="s">
         <v>35</v>
       </c>
       <c r="G12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" t="s">
         <v>115</v>
       </c>
-      <c r="H12" t="s">
+      <c r="N12" t="s">
         <v>116</v>
       </c>
-      <c r="N12" t="s">
-        <v>117</v>
-      </c>
       <c r="O12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
@@ -1426,25 +1421,25 @@
         <v>62</v>
       </c>
       <c r="C13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" t="s">
         <v>118</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>119</v>
-      </c>
-      <c r="E13" t="s">
-        <v>120</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s">
         <v>45</v>
       </c>
       <c r="P13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.45">
@@ -1455,19 +1450,19 @@
         <v>62</v>
       </c>
       <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
         <v>73</v>
-      </c>
-      <c r="D14" t="s">
-        <v>74</v>
       </c>
       <c r="F14" t="s">
         <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.45">
@@ -1475,10 +1470,16 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.45">
@@ -1489,10 +1490,10 @@
         <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I16" t="s">
         <v>45</v>
@@ -1506,10 +1507,10 @@
         <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s">
         <v>45</v>
@@ -1523,10 +1524,10 @@
         <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I18" t="s">
         <v>45</v>
@@ -1540,10 +1541,10 @@
         <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s">
         <v>45</v>
@@ -1557,29 +1558,12 @@
         <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" t="s">
-        <v>133</v>
-      </c>
-      <c r="I21" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1592,9 +1576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1618,7 +1600,7 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="D1" t="s">
         <v>16</v>
@@ -1650,13 +1632,13 @@
         <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
@@ -1676,13 +1658,13 @@
         <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -1702,10 +1684,10 @@
         <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
